--- a/biology/Médecine/Hormone_thyroïdienne/Hormone_thyroïdienne.xlsx
+++ b/biology/Médecine/Hormone_thyroïdienne/Hormone_thyroïdienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hormone_thyro%C3%AFdienne</t>
+          <t>Hormone_thyroïdienne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les hormones thyroïdiennes, c'est-à-dire la thyroxine (T4) la triiodothyronine (T3) et la diiodothyronine (T2), sont des hormones produites par les cellules folliculaires de la thyroïde à partir de la thyroglobuline et d'iodure. Il existe également la thyrocalcitonine, hormone produite par les cellules parafolliculaires de la thyroide et qui joue un rôle dans le métabolisme phospho-calcique. La thyrocalcitonine induit une hypocalcémie et une hypophosphoremie. Celles-ci[pas clair] sont produites majoritairement sous forme de T4. La T4 agit comme une prohormone, relativement peu active, qui est convertie en T3, plus active. La conversion de la T4 en T3 a lieu dans les cellules cibles, sous l'effet d'une enzyme, la thyroxine 5'-désiodase.
-Les hormones thyroïdiennes sont essentielles à la croissance et au développement corrects, à la multiplication et à la différenciation de toutes les cellules de l'organisme, notamment dans le système nerveux central, le squelette et les bourgeons dentaires[1]. À divers degrés, elles régulent le métabolisme basal des protéines, des lipides et des glucides. Toutefois, c'est sur l'utilisation des composés[De quoi ?] riches en énergie que leur effet sur les cellules est le plus prononcé. Elles ont également un effet permissif sur l'action d'autres hormones et de neurotransmetteurs.
+Les hormones thyroïdiennes sont essentielles à la croissance et au développement corrects, à la multiplication et à la différenciation de toutes les cellules de l'organisme, notamment dans le système nerveux central, le squelette et les bourgeons dentaires. À divers degrés, elles régulent le métabolisme basal des protéines, des lipides et des glucides. Toutefois, c'est sur l'utilisation des composés[De quoi ?] riches en énergie que leur effet sur les cellules est le plus prononcé. Elles ont également un effet permissif sur l'action d'autres hormones et de neurotransmetteurs.
 L'hyperthyroïdie est le syndrome clinique causé par un excès de thyroxine libre ou de triiodothyronine libre circulante, ou des deux. Une carence en iode provoque une augmentation de la taille de la thyroïde, d'où l'apparition d'un goitre, en réponse au ralentissement de la biosynthèse des hormones thyroïdiennes.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hormone_thyro%C3%AFdienne</t>
+          <t>Hormone_thyroïdienne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Production des hormones thyroïdiennes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les hormones thyroïdiennes sont biosynthétisées dans la thyroïde. Cette biosynthèse est stimulée indirectement par l'hormone thyréotrope (TRH, de l'anglais : thyrotropin-releasing hormone), un tripeptide de structure (pyro)Glu–His–Pro–NH2 synthétisé par l'hypothalamus. La TRH induit la synthèse de la thyréostimuline (TSH, de l'anglais : thyroid-stimulating hormone) par l'anté-hypophyse, lobe antérieur de l'hypophyse. La TSH agit en augmentant l'expression du gène de la thyroperoxydase (TPO, de l'anglais : thyroid peroxidase).
 La thyroïde est très vascularisée. Les cellules de la thyroïde sont organisées en follicules autour de vésicules thyroïdiennes qui contiennent une substance gélatineuse qu'on appelle généralement la colloïde. Ces cellules sont orientées, c’est-à-dire qu'elles possèdent un pôle apical du côté de la colloïde et un pôle basal du côté des vaisseaux sanguins. Le noyau des cellules folliculaires est relativement actif, la présence d'un réticulum endoplasmique rugueux, riche en ribosomes, démontre une forte activité de biosynthèse des protéines, et l'appareil de Golgi est lui-même très actif car on peut observer de nombreuses vésicules au pôle apical.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hormone_thyro%C3%AFdienne</t>
+          <t>Hormone_thyroïdienne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,11 +563,13 @@
           <t>Diffusion, désiodation de la T4 en T3 et mécanisme d'action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En raison de leur caractère lipophile, la T4 et la T3 sont transportées dans le sang en étant liées à des protéines telles que les globulines liant la thyroxine (TBG, des glycoprotéines qui fixent préférentiellement la T4), la transthyrétine (TTR, une autre glycoprotéine, qui ne transporte pratiquement que la T4) et des albumines sériques, qui ont une affinité relativement faible pour les T3 et T4 mais sont abondantes et donc contribuent significativement à leur diffusion dans l'organisme.
 Les molécules de T4 et T3 présentes dans l'organisme sont généralement liées à une protéine transporteuse, seuls les 0,03 % libres de T4 et les 0,3 % libres de T3 étant biologiquement actives. Ce mode de transport a pour effet d'accroître la demi-vie des hormones thyroïdiennes dans le sang — environ 6,5 jours pour la T4 et 2,5 jours pour la T3 — et de réduire la vitesse à laquelle elles sont absorbées dans les tissus. C'est la raison pour laquelle la mesure de la concentration en hormones thyroïdiennes libres, désignées par T4L et T3L, revêt une grande importance clinique, tandis que la concentration totale, incluant les hormones liées aux protéines transporteuses, n'est pas significative.
-Malgré leur nature lipophile qui devrait leur permettre de passer les membranes cellulaires, les hormones T3 et T4 ne diffusent pas passivement à travers la bicouche de phospholipides de la membrane plasmique des cellules cibles[2], et font appel pour cela à des transporteurs membranaires spécifiques.
+Malgré leur nature lipophile qui devrait leur permettre de passer les membranes cellulaires, les hormones T3 et T4 ne diffusent pas passivement à travers la bicouche de phospholipides de la membrane plasmique des cellules cibles, et font appel pour cela à des transporteurs membranaires spécifiques.
 Parmi les deux hormones thyroïdiennes, la prohormone T4 doit en fait être désiodée en T3 par une thyroxine 5'-désiodase dans les cellules cibles pour être pleinement active : la T3 est typiquement entre trois et cinq fois plus active que la T4, qui sert in fine essentiellement au transport de cette hormone dans le sang. Il existe deux isozymes de cette iodothyronine désiodase :
 le type 1 (D1), présent dans le foie, les reins, la thyroïde et, dans une moindre mesure, l'hypophyse, dont le rôle exact dans l'organisme n'est pas entièrement compris ;
 le type 2 (D2), présent dans l'hypophyse, le muscle squelettique, le cœur (artères coronaires), le système nerveux central et le tissu adipeux brun, responsable de l'essentiel de la formation de T3 dans la thyroïde, mais capable également de désioder la 3,3',5'-triiodothyronine, ou T3 inverse, en 3,3'-diiodothyronine, ou T2.
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hormone_thyro%C3%AFdienne</t>
+          <t>Hormone_thyroïdienne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,22 +603,12 @@
           <t>Effets biologiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les hormones thyroïdiennes agissent sur l'organisme pour augmenter le métabolisme de base, agir sur la biosynthèse des protéines et rendre le corps plus réceptif aux catécholamines (telles l'adrénaline, d'où l'intérêt des bêta-bloquants dans l'hyperthyroïdie). L'iode est un composant important dans leur synthèse.
 Les hormones thyroïdiennes accélèrent le métabolisme de base et, par conséquent, accroissent la consommation de l'organisme en énergie et en oxygène. Elles agissent sur presque tous les tissus, hormis la rate. Elles accélèrent le fonctionnement de la pompe sodium-potassium et, d'une manière générale, raccourcissent la demi-vie des macromolécules endogènes en activant leur biosynthèse et leur dégradation.
-Protéines
-Les hormones thyroïdiennes stimulent la production de l'ARN polymérase I et II, et, par conséquent, augmentent l'activité de biosynthèse des protéines. Elles augmentent également la vitesse de dégradation des protéines, et, lorsqu'elles sont trop abondantes, la dégradation des protéines peut être plus rapide que leur biosynthèse ; dans ce cas, le corps peut tendre vers un équilibre ionique négatif.
-Glucose
-Les hormones thyroïdiennes potentialisent les effets des récepteurs adrénergiques β sur le métabolisme du glucose. Par conséquent, elles accélèrent la dégradation du glycogène et la biosynthèse du glucose par la néoglucogenèse[réf. nécessaire].
-Lipides
-Les hormones thyroïdiennes stimulent la dégradation du cholestérol et augmentent le nombre de récepteurs de LDL, ce qui accélère la lipolyse.
-Cœur
-Les hormones thyroïdiennes accélèrent le rythme cardiaque (Chronotrope positif - Tachycardie) et accroissent la force des systoles (Inotrope positif), augmentant ainsi le débit cardiaque à travers une augmentation du nombre de récepteurs adrénergiques β dans le myocarde et aussi de la sensibilité aux catécholamines. Il en résulte une augmentation de la pression artérielle systolique et une diminution de la pression artérielle diastolique.
-Développement
-Les hormones thyroïdiennes ont un effet profond sur le développement de l'embryon et les nourrissons. Elles affectent les poumons et influencent la croissance postnatale du système nerveux central. Elles stimulent la production de myéline, de neurotransmetteurs, et la croissance des axones. Elles sont également importantes dans la croissance linéaire des os.
-Neurotransmetteurs
-Les hormones thyroïdiennes peuvent accroître le taux de sérotonine dans le cerveau, en particulier au niveau du cortex cérébral, et inhiber les récepteurs 5-HT2, comme l'ont montré des études sur la réversibilité, sous l'effet de la T3, de comportements d'impuissance apprise chez des rats, et des études physiologiques de cerveaux de rats[pas clair] [3].
 </t>
         </is>
       </c>
@@ -613,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hormone_thyro%C3%AFdienne</t>
+          <t>Hormone_thyroïdienne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -628,13 +634,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Usage médical des hormones thyroïdiennes</t>
+          <t>Effets biologiques</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les hormones thyroïdiennes sont prescrites dans les cas d'hypothyroïdie ou de thyroïdectomie (ablation chirurgicale de la glande thyroïdienne). Les hormones thyroïdiennes utilisées sont la T3 et la T4. L'hormone T3 est plus efficace que l'hormone T4 au niveau des récepteurs mais la T4 est transformée en T3 par les tissus périphériques et un traitement par la T4 permet d'avoir un taux normal de T3[4]. La demi-vie de la T3 n'est que de 24 heures et elle nécessiterait deux à trois prises quotidiennes, alors que la demi-vie de la T4 est de 6 à 8 jours et autorise une seule prise quotidienne, ce qui explique son utilisation préférentielle.
-Le diagnostic du fonctionnement thyroïdien se fait en médecine nucléaire par injection d'iode 123 (isotope radioactif de l'iode) produit dans un cyclotron. Sa période radioactive est relativement faible puisqu'elle est de 13,21 h (c'est-à-dire 13 heures, 12 minutes et 36 secondes). Sa désintégration radioactive émet des rayons γ d'énergie caractéristique équivalent à 159 keV et 27 keV. La dose injectée pour le diagnostic ne dépasse pas les 10 mégabecquerels (MBq).
+          <t>Protéines</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les hormones thyroïdiennes stimulent la production de l'ARN polymérase I et II, et, par conséquent, augmentent l'activité de biosynthèse des protéines. Elles augmentent également la vitesse de dégradation des protéines, et, lorsqu'elles sont trop abondantes, la dégradation des protéines peut être plus rapide que leur biosynthèse ; dans ce cas, le corps peut tendre vers un équilibre ionique négatif.
 </t>
         </is>
       </c>
@@ -645,7 +656,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hormone_thyro%C3%AFdienne</t>
+          <t>Hormone_thyroïdienne</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -660,10 +671,231 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Effets biologiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Glucose</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les hormones thyroïdiennes potentialisent les effets des récepteurs adrénergiques β sur le métabolisme du glucose. Par conséquent, elles accélèrent la dégradation du glycogène et la biosynthèse du glucose par la néoglucogenèse[réf. nécessaire].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hormone_thyroïdienne</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hormone_thyro%C3%AFdienne</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Effets biologiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Lipides</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les hormones thyroïdiennes stimulent la dégradation du cholestérol et augmentent le nombre de récepteurs de LDL, ce qui accélère la lipolyse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hormone_thyroïdienne</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hormone_thyro%C3%AFdienne</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Effets biologiques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cœur</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les hormones thyroïdiennes accélèrent le rythme cardiaque (Chronotrope positif - Tachycardie) et accroissent la force des systoles (Inotrope positif), augmentant ainsi le débit cardiaque à travers une augmentation du nombre de récepteurs adrénergiques β dans le myocarde et aussi de la sensibilité aux catécholamines. Il en résulte une augmentation de la pression artérielle systolique et une diminution de la pression artérielle diastolique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hormone_thyroïdienne</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hormone_thyro%C3%AFdienne</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Effets biologiques</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Développement</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les hormones thyroïdiennes ont un effet profond sur le développement de l'embryon et les nourrissons. Elles affectent les poumons et influencent la croissance postnatale du système nerveux central. Elles stimulent la production de myéline, de neurotransmetteurs, et la croissance des axones. Elles sont également importantes dans la croissance linéaire des os.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hormone_thyroïdienne</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hormone_thyro%C3%AFdienne</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Effets biologiques</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Neurotransmetteurs</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les hormones thyroïdiennes peuvent accroître le taux de sérotonine dans le cerveau, en particulier au niveau du cortex cérébral, et inhiber les récepteurs 5-HT2, comme l'ont montré des études sur la réversibilité, sous l'effet de la T3, de comportements d'impuissance apprise chez des rats, et des études physiologiques de cerveaux de rats[pas clair] .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hormone_thyroïdienne</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hormone_thyro%C3%AFdienne</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Usage médical des hormones thyroïdiennes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les hormones thyroïdiennes sont prescrites dans les cas d'hypothyroïdie ou de thyroïdectomie (ablation chirurgicale de la glande thyroïdienne). Les hormones thyroïdiennes utilisées sont la T3 et la T4. L'hormone T3 est plus efficace que l'hormone T4 au niveau des récepteurs mais la T4 est transformée en T3 par les tissus périphériques et un traitement par la T4 permet d'avoir un taux normal de T3. La demi-vie de la T3 n'est que de 24 heures et elle nécessiterait deux à trois prises quotidiennes, alors que la demi-vie de la T4 est de 6 à 8 jours et autorise une seule prise quotidienne, ce qui explique son utilisation préférentielle.
+Le diagnostic du fonctionnement thyroïdien se fait en médecine nucléaire par injection d'iode 123 (isotope radioactif de l'iode) produit dans un cyclotron. Sa période radioactive est relativement faible puisqu'elle est de 13,21 h (c'est-à-dire 13 heures, 12 minutes et 36 secondes). Sa désintégration radioactive émet des rayons γ d'énergie caractéristique équivalent à 159 keV et 27 keV. La dose injectée pour le diagnostic ne dépasse pas les 10 mégabecquerels (MBq).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Hormone_thyroïdienne</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hormone_thyro%C3%AFdienne</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Histoire et découverte</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">La thyroxine (T4) a été isolée par l'Américain Edward Calvin Kendall en 1910 à partir de trois tonnes de thyroïde de porc, tandis que la triiodothyronine (T3) a été découverte en 1952 par le Français Jean Roche.
 </t>
